--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_82_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_82_.xlsx
@@ -560,11 +560,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,51 +589,51 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.8895911130149057, 1.3128059164059285]</t>
+          <t>[0.88821679627197, 1.3141802331488641]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1.167954621905665e-13</v>
+        <v>1.438849039914203e-13</v>
       </c>
       <c r="N2" t="n">
-        <v>1.167954621905665e-13</v>
+        <v>1.438849039914203e-13</v>
       </c>
       <c r="O2" t="n">
         <v>0.2075526678047313</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[0.006289474781961957, 0.40881586082750054]</t>
+          <t>[-0.018868424345884094, 0.4339737599553466]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>0.04353557703299571</v>
+        <v>0.07143787951971814</v>
       </c>
       <c r="R2" t="n">
-        <v>0.04353557703299571</v>
+        <v>0.07143787951971814</v>
       </c>
       <c r="S2" t="n">
         <v>0.1464890560125237</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.016619231555992542, 0.2763588804690549]</t>
+          <t>[0.016683007558248586, 0.27629510446679884]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>0.02792573113658725</v>
+        <v>0.02785292407171158</v>
       </c>
       <c r="V2" t="n">
-        <v>0.02792573113658725</v>
+        <v>0.02785292407171158</v>
       </c>
       <c r="W2" t="n">
         <v>20.97351351351377</v>
       </c>
       <c r="X2" t="n">
-        <v>20.27873873873899</v>
+        <v>20.19189189189214</v>
       </c>
       <c r="Y2" t="n">
-        <v>21.66828828828855</v>
+        <v>21.7551351351354</v>
       </c>
     </row>
   </sheetData>
